--- a/1851-1817-american-asylum.xlsx
+++ b/1851-1817-american-asylum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39900" yWindow="6540" windowWidth="27260" windowHeight="12040" tabRatio="500"/>
+    <workbookView xWindow="10240" yWindow="3820" windowWidth="27260" windowHeight="12040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Abbott</t>
   </si>
@@ -70,13 +70,46 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Abell</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>St. Albans</t>
+  </si>
+  <si>
+    <t>Vt.</t>
+  </si>
+  <si>
+    <t>Dis. in the head at 8 mo.</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Married a deaf mute; dead</t>
+  </si>
+  <si>
+    <t>Aiken</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Londonderry</t>
+  </si>
+  <si>
+    <t>Scarlet fever at 4 years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +133,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,9 +202,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -533,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -614,6 +660,69 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1829</v>
+      </c>
+      <c r="F3" s="2">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1827</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
